--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220224.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224724.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 09:02:41</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 10:47:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224724.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223324.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 10:47:13</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 11:33:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223324.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 11:33:54</t>
+    <t>Informação extraída do SIGBM: 24/12/2022 - 11:55:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225524.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 24/12/2022 - 11:55:14</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:09:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:09:06</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:27:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:27:13</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:36:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:36:13</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:44:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:44:55</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:54:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:54:13</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:03:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:03:10</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:26:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:26:51</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:39:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:39:33</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:48:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:48:00</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:56:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:56:58</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:11:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:11:11</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:26:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:26:53</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:34:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:34:58</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:44:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225225.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:44:19</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:52:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225225.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:52:29</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:01:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:01:14</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:23:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:23:54</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:37:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224525.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:37:12</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:45:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224525.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:45:22</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:54:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:54:06</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:03:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:03:07</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:19:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:19:58</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:29:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:29:05</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:37:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:37:36</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:47:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225525.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:47:21</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:55:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225525.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:55:30</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:11:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:11:27</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:30:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:30:34</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:41:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:41:09</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:50:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:50:13</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:58:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:58:38</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:14:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:14:41</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:26:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223525.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:26:47</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:35:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223525.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:35:51</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:44:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:44:18</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:53:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220225.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:53:23</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:02:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220225.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222225.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:02:09</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:22:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222225.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:22:17</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:33:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:33:04</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:41:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:41:51</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:51:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:51:08</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:59:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:59:36</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:13:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:13:51</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:24:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223225.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:24:24</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:32:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223225.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:32:36</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:41:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:41:56</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:50:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:50:18</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:59:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:59:15</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 09:26:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225225.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 09:26:20</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 09:52:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225225.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 09:52:21</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 10:08:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 10:08:59</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 10:28:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 10:28:06</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 10:37:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 10:37:11</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 10:46:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 10:46:21</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 10:54:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220525.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 10:54:37</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:05:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220525.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:05:03</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:20:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:20:53</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:29:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:29:56</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:38:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:38:31</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:47:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:47:35</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 11:56:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 11:56:39</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:11:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:11:23</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:26:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223525.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:26:24</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:35:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223525.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:35:11</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:44:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:44:40</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 12:53:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 12:53:07</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:01:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:01:57</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:28:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:28:42</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:44:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:44:38</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 01:54:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220225.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 01:54:00</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:02:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220225.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:02:39</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:19:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:19:18</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:29:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:29:44</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:38:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:38:22</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:47:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:47:01</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 02:56:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 02:56:15</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:11:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:11:22</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:30:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:30:25</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:40:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:40:29</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:49:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:49:09</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 03:58:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 03:58:16</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:11:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:11:36</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:21:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:21:52</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:30:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:30:28</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:39:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:39:33</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:47:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:47:58</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 04:57:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221225.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 04:57:03</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:12:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221225.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:12:24</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:26:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:26:47</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:36:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224525.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:36:04</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:45:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224525.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:45:06</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 05:53:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 05:53:43</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:03:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:03:10</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:19:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:19:18</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:28:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:28:17</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:37:30</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -6896,7 +6896,7 @@
     <t>-43°43'39.215"</t>
   </si>
   <si>
-    <t>10.406.202,61</t>
+    <t>10.454.955,01</t>
   </si>
   <si>
     <t>Conterpa</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223725.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224625.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:37:30</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:46:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224625.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225525.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:46:27</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 06:55:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225525.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 06:55:16</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:08:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222425.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:08:23</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:24:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222425.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223325.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:24:55</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:33:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223325.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224225.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:33:53</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:42:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224225.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225125.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:42:45</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 07:51:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225125.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 07:51:20</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:00:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:00:24</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:19:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223025.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:19:08</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:30:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223025.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223925.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:30:44</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:39:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223925.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224825.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:39:57</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:48:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-25.xlsx
+++ b/sigbm_download_2022-12-25.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224825.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225725.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 25/12/2022 - 08:48:18</t>
+    <t>Informação extraída do SIGBM: 25/12/2022 - 08:57:07</t>
   </si>
   <si>
     <t>ID Barragem</t>
